--- a/gtepuc.xlsx
+++ b/gtepuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/TsingHua/科研进展/发输联合规划/代码迭代/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Documents/GitHub/TEPwithCEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E5D96-1A28-404B-B9D7-69FAB91B8BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B02B5-7BD6-8E49-B23C-EAAF77011CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{2BAB91DA-CDC9-8D43-98F4-72B52726A2BF}"/>
+    <workbookView minimized="1" xWindow="1180" yWindow="-19520" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{2BAB91DA-CDC9-8D43-98F4-72B52726A2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="generator_type" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P10"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/gtepuc.xlsx
+++ b/gtepuc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Documents/GitHub/TEPwithCEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B02B5-7BD6-8E49-B23C-EAAF77011CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B479851-1B46-3C4D-9D56-F91469AE9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1180" yWindow="-19520" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{2BAB91DA-CDC9-8D43-98F4-72B52726A2BF}"/>
+    <workbookView xWindow="1180" yWindow="-19540" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{2BAB91DA-CDC9-8D43-98F4-72B52726A2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="generator_type" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="L3" sqref="L3:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="L4">
         <f>K4/K33*L33</f>
-        <v>151.96881606765331</v>
+        <v>114.69344608879494</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1188,8 +1188,8 @@
         <v>2.4</v>
       </c>
       <c r="L5">
-        <f>K5/189.2*1325</f>
-        <v>16.807610993657505</v>
+        <f>K5/K33*L33</f>
+        <v>12.684989429175477</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1222,8 +1222,8 @@
         <v>7.6</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L32" si="1">K6/189.2*1325</f>
-        <v>53.22410147991544</v>
+        <f>K6/K33*L33</f>
+        <v>40.169133192389012</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L6:L32" si="1">K7/189.2*1325</f>
         <v>0</v>
       </c>
     </row>
@@ -1324,8 +1324,8 @@
         <v>22.8</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
-        <v>159.67230443974631</v>
+        <f>K9/189.2*1000</f>
+        <v>120.50739957716702</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1358,8 +1358,8 @@
         <v>30</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>210.09513742071883</v>
+        <f t="shared" ref="L10:L32" si="2">K10/189.2*1000</f>
+        <v>158.56236786469347</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1426,8 +1426,8 @@
         <v>5.8</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
-        <v>40.618393234672304</v>
+        <f t="shared" si="2"/>
+        <v>30.655391120507399</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1494,8 +1494,8 @@
         <v>11.2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
-        <v>78.43551797040169</v>
+        <f t="shared" si="2"/>
+        <v>59.196617336152215</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1562,8 +1562,8 @@
         <v>6.2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
-        <v>43.419661733615229</v>
+        <f t="shared" si="2"/>
+        <v>32.76955602536998</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1596,8 +1596,8 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
-        <v>57.426004228329809</v>
+        <f t="shared" si="2"/>
+        <v>43.340380549682877</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1630,8 +1630,8 @@
         <v>3.5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>24.511099365750532</v>
+        <f t="shared" si="2"/>
+        <v>18.49894291754757</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1664,8 +1664,8 @@
         <v>9</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
-        <v>63.028541226215651</v>
+        <f t="shared" si="2"/>
+        <v>47.568710359408037</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1698,8 +1698,8 @@
         <v>3.2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
-        <v>22.41014799154334</v>
+        <f t="shared" si="2"/>
+        <v>16.913319238900634</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1732,8 +1732,8 @@
         <v>9.5</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
-        <v>66.530126849894287</v>
+        <f t="shared" si="2"/>
+        <v>50.211416490486258</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1766,8 +1766,8 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
-        <v>15.406976744186048</v>
+        <f t="shared" si="2"/>
+        <v>11.627906976744187</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1800,8 +1800,8 @@
         <v>17.5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
-        <v>122.55549682875265</v>
+        <f t="shared" si="2"/>
+        <v>92.494714587737846</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1868,8 +1868,8 @@
         <v>3.2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
-        <v>22.41014799154334</v>
+        <f t="shared" si="2"/>
+        <v>16.913319238900634</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1902,8 +1902,8 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
-        <v>60.92758985200846</v>
+        <f t="shared" si="2"/>
+        <v>45.983086680761097</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1954,8 +1954,8 @@
         <v>3.5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
-        <v>24.511099365750532</v>
+        <f t="shared" si="2"/>
+        <v>18.49894291754757</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2026,8 +2026,8 @@
         <v>2.4</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
-        <v>16.807610993657505</v>
+        <f t="shared" si="2"/>
+        <v>12.684989429175475</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2050,8 +2050,8 @@
         <v>10.6</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
-        <v>74.233615221987321</v>
+        <f t="shared" si="2"/>
+        <v>56.025369978858357</v>
       </c>
     </row>
     <row r="33" spans="4:12">
@@ -2078,7 +2078,7 @@
         <v>189.19999999999996</v>
       </c>
       <c r="L33">
-        <v>1325</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="4:12">
@@ -2112,6 +2112,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="L9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
